--- a/biology/Zoologie/Fonce,_toutou,_fonce_!/Fonce,_toutou,_fonce_!.xlsx
+++ b/biology/Zoologie/Fonce,_toutou,_fonce_!/Fonce,_toutou,_fonce_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonce, toutou, fonce ! (Go, Dog. Go![1]) est une série télévisée d'animation américano-canadienne produite par Netflix et diffusée en 2021. Il est adapté du livre homonyme de P. D. Eastman (d). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonce, toutou, fonce ! (Go, Dog. Go!) est une série télévisée d'animation américano-canadienne produite par Netflix et diffusée en 2021. Il est adapté du livre homonyme de P. D. Eastman (d). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux jeunes chiens, Tag Babine et Pouf Pattouche, vivent une vie aventureuse à Toutouville.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Go, Dog. Go!
@@ -565,7 +581,7 @@
 Genre : série d'animation, aventure, éducation
 Durée : 24 minutes
 Date de première diffusion :
-Monde : 26 janvier 2021 sur Netflix[2]</t>
+Monde : 26 janvier 2021 sur Netflix</t>
         </is>
       </c>
     </row>
@@ -593,13 +609,15 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tag (en anglais Tag Barker) : est une jeune chienne orange de 6 ans[3]. Elle est la sœur de Chouquette, Spike, Gilbert et Youpi.
-Pouf Pattouche (en anglais Scooch Pooch) : est un jeune chien bleu de 6 ans[3]. Il est le meilleur ami et voisin de Tag.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tag (en anglais Tag Barker) : est une jeune chienne orange de 6 ans. Elle est la sœur de Chouquette, Spike, Gilbert et Youpi.
+Pouf Pattouche (en anglais Scooch Pooch) : est un jeune chien bleu de 6 ans. Il est le meilleur ami et voisin de Tag.
 P'pa (en anglais Paw Barker) : est un chien brun. Il est le père de Tag, Chouquette, Spike, Gilbert et Youpi.
 M’man (en anglais Ma Barker) : est une chienne lavande. Elle est la mère de Tag, Chouquette, Spike, Gilbert et Youpi.
-Chouquette (en anglais Cheddar Biscuit) : est une chienne blanche de 7 ans[3]. Elle est la sœur de Tag, Spike, Gilbert et Youpi.
+Chouquette (en anglais Cheddar Biscuit) : est une chienne blanche de 7 ans. Elle est la sœur de Tag, Spike, Gilbert et Youpi.
 Spike (en anglais Spike Barker) : est un chien rouge. Il est le frère de Tag, Chouquette, Gilbert et Youpi.
 Gilbert (en anglais Gilber Barker) : est un chien jaune. Il est le frère de Tag, Chouquette, Spike et Youpi.
 Mémé (en anglais Grandma Marge Barker) : est une vieille chienne pourpre. Elle est la grand-mère de Tag, Chouquette, Spike, Gilbert et Youpi.
@@ -649,15 +667,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voix originales
-Michela Luci : Tag Barker[2]
-Callum Shoniker : Scooch Pooch[2]
-Katie Griffin : Ma Barker[2]
-Martin Roach : Paw Barker[2]
-Tajja Isen : Cheddar Biscuit[2] / Franny's Mom / Beefsteak
-Lyon Smith : Spike Barker[2]
-Judy Marshank : Grandma Marge Barker[2] / Wagnes
-Patrick McKenna : Grandpaw Mort Barker[2] / Gerald / Muttfield / Manhole Dog / Brutus
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Michela Luci : Tag Barker
+Callum Shoniker : Scooch Pooch
+Katie Griffin : Ma Barker
+Martin Roach : Paw Barker
+Tajja Isen : Cheddar Biscuit / Franny's Mom / Beefsteak
+Lyon Smith : Spike Barker
+Judy Marshank : Grandma Marge Barker / Wagnes
+Patrick McKenna : Grandpaw Mort Barker / Gerald / Muttfield / Manhole Dog / Brutus
 Linda Ballantyne : Lady Lydia / Sgt Pooch / Mayor Sniffington
 Joshua Graham : Sam Whippet / Franny's Dad / Bernard Rubber
 Deven Mack : Fetcher
@@ -676,20 +699,88 @@
 Zarina Rocha : Kit Whiskerton
 Paul Braunstein : Tom Whiskerton
 Matthew Mucci : Big Dog
-Hattie Kragten : Little Dog
-Voix britanniques
-Maisie Marsh : Tag Barker
+Hattie Kragten : Little Dog</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix britanniques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Maisie Marsh : Tag Barker
 Toby Fullman : Scooch Pooch
 Petra Letang : Mum Barker
 Jude Owusu : Paw Barker
 Hannah Hutch : Cheddar Biscuit
-James Cartmell : Gilbert Barker[4],[5]
+James Cartmell : Gilbert Barker,
 Victoria Strachan : Grandmaw Barker
 Laurie Jamieson : Grandpaw Barker
 Adam Diggle : Frank
-Shubham Saraf : Beans
-Voix françaises
-Lévanah Solomon : Tag
+Shubham Saraf : Beans</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lévanah Solomon : Tag
 Aliénor Josso : Pouf Pattouche
 Isabelle Ganz : Mémé
 Pascal Casanova : Pépère
@@ -716,39 +807,44 @@
 Direction artistique : Fabrice Josso
 Direction musicale : Claude Lombard &amp; Magali Bonfils
 Adaptation musicale : Claude Lombard &amp; Samuel Cohen
- Source et légende : version française (VF) sur RS Doublage[6] et Netflix
+ Source et légende : version française (VF) sur RS Doublage et Netflix
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Première saison (2021)
-L'intégralité de la première saison est sortie le 26 janvier 2021[2].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Première saison (2021)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'intégralité de la première saison est sortie le 26 janvier 2021.
 Bienvenue à Toutouville / Le facteur aboie toujours deux fois (Welcome to Pawston / Ruff Day on the Job)
 Le Oua-Oua-concert stellaire en plein air / L'école de pilotage (Dark Park Bark Lark / The Fast and the Curious)
 Le concours des talents / La journée du petit dodo sans boulot (Old Dog, New Tricks / Snoozie-Hullabaloozie)
@@ -757,9 +853,43 @@
 La Saint Balle-entin (A Ball for All)
 Le jour de la sonnette / La grande course (Ding Dong Day / Grand Sam)
 La fête des cot cot / En route pour le match ! (Clucky Day / Take Me Out to the Fetch Game)
-Être ou ne pas être un bon chien (Dog the Right Thing)
-Deuxième saison (2021)
-L'intégralité de la deuxième saison est sortie le 7 décembre 2021[7].
+Être ou ne pas être un bon chien (Dog the Right Thing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'intégralité de la deuxième saison est sortie le 7 décembre 2021.
 Il neige, toutou, il neige ! (Snow Dog, Snow)
 Toutes les pattes sur le pont / Le kiosque à nonos (All Paws on Deck / Bonestand and Deliver)
 Attrape-moi, Michael ! / Des jouets pour tous ! (Catch Me If You Sam / Toy Driver)
@@ -768,9 +898,43 @@
 Les aventuriers de la pantoufle perdue / Freine, toutou, freine ! (Raiders of the Lost Bark / Slow Dog Slow)
 L'important, c'est de s'amuser / Chante pour la ville ! (Board Silly / Sing for the Fences)
 Chipo-Rapido-Mécano / Toutou-Kwondo (Fast Frank's Fixit / Tail-kwondo)
-Joyeux anniversaire, Toutouville ! (Happy Birthday Pawston)
-Troisième saison (2022)
-L'intégralité de la troisième saison est sortie le 19 septembre 2022[8].
+Joyeux anniversaire, Toutouville ! (Happy Birthday Pawston)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Troisième saison (2022)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'intégralité de la troisième saison est sortie le 19 septembre 2022.
 Une mission pour un grand chien / Une enquête bien baveuse (Big Dog Job / The Case of the Slobbery)
 Opération nettoyage ! / Comme chiens et chats ! (Tag Team / Cattitude Adjustment)
 Abracada-ouaf ! / Tempête de poils ! (Hocus Focus / Furricane)
@@ -782,104 +946,150 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Buckley compose la musique du dessin animé[9].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Buckley compose la musique du dessin animé.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Ashley Moulton, de Common Sense Media, poste donne une note de quatre étoiles sur cinq[10].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ashley Moulton, de Common Sense Media, poste donne une note de quatre étoiles sur cinq.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Récompenses
-Prix ACTRA[11],[12] :
-Performance exceptionnelle – Genre non conforme ou voix masculine : Joshua Graham pour l'épisode Dog The Right Thing
-Nominations
-Leo Awards 2021[13] :
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Prix ACTRA, :
+Performance exceptionnelle – Genre non conforme ou voix masculine : Joshua Graham pour l'épisode Dog The Right Thing</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonce,_toutou,_fonce_!</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Leo Awards 2021 :
 Meilleure série d'animation de réalisation : Andrew Duncan et Kiran Sangherra pour l'épisode Clucky Day / Take Me Out to the Fetch Game
-Prix ACTRA[11],[12] :
+Prix ACTRA, :
 Performance exceptionnelle – Genre non conforme ou voix masculine : Anand Rajaram pour l'épisode Clucky Day / Take Me Out to the Fetch Game
-Prix Écrans canadiens[14] :
+Prix Écrans canadiens :
 Meilleur programme ou série d'animation</t>
         </is>
       </c>
